--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_16_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_16_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.22836170104341</v>
+        <v>9995.443978507699</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.22836170104341</v>
+        <v>9995.443978507699</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77437.8982573346</v>
+        <v>5168698.673855714</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77437.8982573346</v>
+        <v>5168698.673855714</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266027708.036302</v>
+        <v>47445554.56494343</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13981.40108959728</v>
+        <v>1198209.479667265</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26400.31089629695</v>
+        <v>2124614.84982569</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38802.33382596127</v>
+        <v>3051020.219984114</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51465.56087787211</v>
+        <v>3976497.070923496</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>64128.78792978294</v>
+        <v>4901973.921862878</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>76792.01498169379</v>
+        <v>5827450.772802259</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>89455.24203360462</v>
+        <v>6752927.623741635</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>102118.4690855155</v>
+        <v>7678404.474681012</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>114790.4092497831</v>
+        <v>8602821.714043109</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>127463.4974908896</v>
+        <v>9527467.420696147</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>140136.585731996</v>
+        <v>10452113.12734918</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>152809.6739731025</v>
+        <v>11376758.83400223</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>165482.762214209</v>
+        <v>12301404.54065528</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>178155.8504553155</v>
+        <v>13226050.24730832</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>190828.938696422</v>
+        <v>14150695.95396137</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>178</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>177</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
